--- a/data/zht.xlsx
+++ b/data/zht.xlsx
@@ -29,6 +29,49 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -43,62 +86,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,7 +102,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -151,13 +149,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -186,181 +186,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,32 +402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -443,11 +417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +450,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -479,8 +468,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +488,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1386,7 +1386,7 @@
     "signs": [],
     "status": null,
     "statusBean": null,
-    "unReadMsgCount": 93,
+    "unReadMsgCount": 0,
     "userId": 130356642893033472,
     "userType": "2",
     "zw": ""
@@ -1569,10 +1569,10 @@
           <t>{
   "code": 200,
   "data": {
-    "TK": "bxiTGTxbl2dtsbl4md54U0lZAOMvDMGshkfHcWhi9VLAX3mPQ/eY//G7Mjvx6wZj",
+    "TK": "bxiTGTxbl2dtsbl4md54U3Sno4OoNUGJabkLA//AnW0LOOHWtlPc/QbI6epSWEsd",
     "sc_list": [
       {
-        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+0paiEYJFW9Z5b3AWcYHJ6HnEjJO00ajubrWefWW1tcNGbZbxDWTbucGsreAlvgK3A==&amp;JYH_XH=00000000000000096205&amp;_SIGN=hOCDlGG9RVUJfWIEQp3i4A==",
+        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+170hmh84031urm4YWamg9J35ZC+Ovst0pjwe4xgwVOv8wTBMBlKEdYJZSUBE8xfHw==&amp;JYH_XH=00000000000000096205&amp;_SIGN=aWsMRYt/rXgGMYfoA3zxaQ==",
         "msgCount": 12,
         "sc_icon": "http://119.45.152.126:8099/upload/2020/08/04/707e6c26dafb9d6422abf4c1009871c6.png",
         "sc_name": "意法服饰城",
@@ -1582,7 +1582,7 @@
             "dpxx_id": "00000000000020040489",
             "dpxx_name": "猪猪测试",
             "jyh_xh": "00000000000000096205",
-            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+0paiEYJFW9Z5b3AWcYHJ6HnEjJO00ajubrWefWW1tcNGbZbxDWTbucGsreAlvgK3A==&amp;JYH_XH=00000000000000096205&amp;_SIGN=hOCDlGG9RVUJfWIEQp3i4A==",
+            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+170hmh84031urm4YWamg9J35ZC+Ovst0pjwe4xgwVOv8wTBMBlKEdYJZSUBE8xfHw==&amp;JYH_XH=00000000000000096205&amp;_SIGN=aWsMRYt/rXgGMYfoA3zxaQ==",
             "msgCount": 12,
             "twh": "1261A"
           }
@@ -1590,7 +1590,7 @@
         "user_id": 130356642893033472
       },
       {
-        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+6R+h5CA1TAwIFwUasW5ywFv9cpbMoRBAtZRiz1H94VdGDAiRqWEQ0EIJ+UONxClrw==&amp;JYH_XH=00000000000000096454&amp;_SIGN=9yLI2f9y9yh5zWTCOez73A==",
+        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+5g3vbsDb3YcdObM2NvU+YbjdAyx3JMfs5BOhuc1p3IZ6zpjg8+q1uJUpy8dHOPd4w==&amp;JYH_XH=00000000000000096454&amp;_SIGN=ZvSXs1DPqSVXonpoVFtd4w==",
         "msgCount": 0,
         "sc_icon": "http://119.45.152.126:8099/upload/2020/07/26/d004b25e75135c9eb42a75694c37a3c4.png",
         "sc_name": "中洲女装城",
@@ -1600,7 +1600,7 @@
             "dpxx_id": "00000000000020051964",
             "dpxx_name": "哈当",
             "jyh_xh": "00000000000000096454",
-            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+6R+h5CA1TAwIFwUasW5ywFv9cpbMoRBAtZRiz1H94VdGDAiRqWEQ0EIJ+UONxClrw==&amp;JYH_XH=00000000000000096454&amp;_SIGN=9yLI2f9y9yh5zWTCOez73A==",
+            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+5g3vbsDb3YcdObM2NvU+YbjdAyx3JMfs5BOhuc1p3IZ6zpjg8+q1uJUpy8dHOPd4w==&amp;JYH_XH=00000000000000096454&amp;_SIGN=ZvSXs1DPqSVXonpoVFtd4w==",
             "msgCount": 0,
             "twh": "8002"
           }
@@ -1870,128 +1870,7 @@
         <is>
           <t>{
   "code": 200,
-  "data": [
-    {
-      "addTime": null,
-      "createBy": null,
-      "createTime": null,
-      "id": 21856,
-      "isread": "0",
-      "jpushUrl": null,
-      "jyhXh": "00000000000000096205",
-      "menuCode": "nhwy",
-      "msg": "您收到一条维修申请，点此查看并处理申请！",
-      "msgType": null,
-      "msgUrl": "http://repair.mylcmj.com/h5/index.html#/pages/maintainDetails/details?id=512595&amp;twh=1261A&amp;userType=2&amp;scXh=0000000000000000002&amp;accessToken={access_token}",
-      "params": {},
-      "remark": null,
-      "scXh": "0000000000000000002",
-      "searchValue": null,
-      "sendTime": "2021-08-13 11:08:00",
-      "updateBy": null,
-      "updateTime": null,
-      "userId": 130356642893033472,
-      "userType": 2,
-      "zhtMobile": "0",
-      "zhtUserId": "00000000000020040508"
-    },
-    {
-      "addTime": null,
-      "createBy": null,
-      "createTime": null,
-      "id": 21855,
-      "isread": "0",
-      "jpushUrl": null,
-      "jyhXh": "00000000000000096205",
-      "menuCode": "nhwy",
-      "msg": "您收到一条维修申请，点此查看并处理申请！",
-      "msgType": null,
-      "msgUrl": "http://repair.mylcmj.com/h5/index.html#/pages/maintainDetails/details?id=512595&amp;twh=1261A&amp;userType=2&amp;scXh=0000000000000000002&amp;accessToken={access_token}",
-      "params": {},
-      "remark": null,
-      "scXh": "0000000000000000002",
-      "searchValue": null,
-      "sendTime": "2021-08-13 11:07:00",
-      "updateBy": null,
-      "updateTime": null,
-      "userId": 130356642893033472,
-      "userType": 2,
-      "zhtMobile": "0",
-      "zhtUserId": "00000000000020040508"
-    },
-    {
-      "addTime": null,
-      "createBy": null,
-      "createTime": null,
-      "id": 21802,
-      "isread": "0",
-      "jpushUrl": null,
-      "jyhXh": "00000000000000096205",
-      "menuCode": "nhwy",
-      "msg": "您收到一条维修申请，点此查看并处理申请！",
-      "msgType": null,
-      "msgUrl": "http://repair.mylcmj.com/h5/index.html#/pages/maintainDetails/details?id=512593&amp;twh=1261A&amp;userType=2&amp;scXh=0000000000000000002&amp;accessToken={access_token}",
-      "params": {},
-      "remark": null,
-      "scXh": "0000000000000000002",
-      "searchValue": null,
-      "sendTime": "2021-08-13 10:45:00",
-      "updateBy": null,
-      "updateTime": null,
-      "userId": 130356642893033472,
-      "userType": 2,
-      "zhtMobile": "0",
-      "zhtUserId": "00000000000020040508"
-    },
-    {
-      "addTime": null,
-      "createBy": null,
-      "createTime": null,
-      "id": 20341,
-      "isread": "0",
-      "jpushUrl": null,
-      "jyhXh": "00000000000000096205",
-      "menuCode": "nhwy",
-      "msg": "您收到一条维修申请，点此查看并处理申请！",
-      "msgType": null,
-      "msgUrl": "http://repair.mylcmj.com/h5/index.html#/pages/maintainDetails/details?id=512568&amp;twh=1261A&amp;userType=2&amp;scXh=0000000000000000002&amp;accessToken={access_token}",
-      "params": {},
-      "remark": null,
-      "scXh": "0000000000000000002",
-      "searchValue": null,
-      "sendTime": "2021-08-12 12:15:00",
-      "updateBy": null,
-      "updateTime": null,
-      "userId": 130356642893033472,
-      "userType": 2,
-      "zhtMobile": "0",
-      "zhtUserId": "00000000000020040508"
-    },
-    {
-      "addTime": null,
-      "createBy": null,
-      "createTime": null,
-      "id": 20342,
-      "isread": "0",
-      "jpushUrl": null,
-      "jyhXh": "00000000000000096205",
-      "menuCode": "nhwy",
-      "msg": "您收到一条维修申请，点此查看并处理申请！",
-      "msgType": null,
-      "msgUrl": "http://repair.mylcmj.com/h5/index.html#/pages/maintainDetails/details?id=512571&amp;twh=1261A&amp;userType=2&amp;scXh=0000000000000000002&amp;accessToken={access_token}",
-      "params": {},
-      "remark": null,
-      "scXh": "0000000000000000002",
-      "searchValue": null,
-      "sendTime": "2021-08-12 12:15:00",
-      "updateBy": null,
-      "updateTime": null,
-      "userId": 130356642893033472,
-      "userType": 2,
-      "zhtMobile": "0",
-      "zhtUserId": "00000000000020040508"
-    }
-  ],
+  "data": [],
   "msg": "操作成功"
 }</t>
         </is>

--- a/data/zht.xlsx
+++ b/data/zht.xlsx
@@ -1569,10 +1569,10 @@
           <t>{
   "code": 200,
   "data": {
-    "TK": "bxiTGTxbl2dtsbl4md54U3Sno4OoNUGJabkLA//AnW0LOOHWtlPc/QbI6epSWEsd",
+    "TK": "bxiTGTxbl2dtsbl4md54U/j3tGxDcBnuucC/SaCMpidH4ya0owI52VTPLrjJBbvI",
     "sc_list": [
       {
-        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+170hmh84031urm4YWamg9J35ZC+Ovst0pjwe4xgwVOv8wTBMBlKEdYJZSUBE8xfHw==&amp;JYH_XH=00000000000000096205&amp;_SIGN=aWsMRYt/rXgGMYfoA3zxaQ==",
+        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt++JsirN6EC8LcuZGeF4fK0GEWCWFN34UvVuXpYArcYthwQWDgrzx8wOG55m7m86Uvg==&amp;JYH_XH=00000000000000096205&amp;_SIGN=nIqdkp7AFyeUffK9w0xxKg==",
         "msgCount": 12,
         "sc_icon": "http://119.45.152.126:8099/upload/2020/08/04/707e6c26dafb9d6422abf4c1009871c6.png",
         "sc_name": "意法服饰城",
@@ -1582,7 +1582,7 @@
             "dpxx_id": "00000000000020040489",
             "dpxx_name": "猪猪测试",
             "jyh_xh": "00000000000000096205",
-            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+170hmh84031urm4YWamg9J35ZC+Ovst0pjwe4xgwVOv8wTBMBlKEdYJZSUBE8xfHw==&amp;JYH_XH=00000000000000096205&amp;_SIGN=aWsMRYt/rXgGMYfoA3zxaQ==",
+            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt++JsirN6EC8LcuZGeF4fK0GEWCWFN34UvVuXpYArcYthwQWDgrzx8wOG55m7m86Uvg==&amp;JYH_XH=00000000000000096205&amp;_SIGN=nIqdkp7AFyeUffK9w0xxKg==",
             "msgCount": 12,
             "twh": "1261A"
           }
@@ -1590,7 +1590,7 @@
         "user_id": 130356642893033472
       },
       {
-        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+5g3vbsDb3YcdObM2NvU+YbjdAyx3JMfs5BOhuc1p3IZ6zpjg8+q1uJUpy8dHOPd4w==&amp;JYH_XH=00000000000000096454&amp;_SIGN=ZvSXs1DPqSVXonpoVFtd4w==",
+        "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+3LqJC2MVMzaFmWt/ok6dNNtXIyffVtQTK40t7nBNcycSSgVOm6WjB12e/rmYlRDRA==&amp;JYH_XH=00000000000000096454&amp;_SIGN=fVrb9S2aoRdnJ+9khab+/A==",
         "msgCount": 0,
         "sc_icon": "http://119.45.152.126:8099/upload/2020/07/26/d004b25e75135c9eb42a75694c37a3c4.png",
         "sc_name": "中洲女装城",
@@ -1600,7 +1600,7 @@
             "dpxx_id": "00000000000020051964",
             "dpxx_name": "哈当",
             "jyh_xh": "00000000000000096454",
-            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+5g3vbsDb3YcdObM2NvU+YbjdAyx3JMfs5BOhuc1p3IZ6zpjg8+q1uJUpy8dHOPd4w==&amp;JYH_XH=00000000000000096454&amp;_SIGN=ZvSXs1DPqSVXonpoVFtd4w==",
+            "login_url": "http://test1.yffsc.com/zht/uc/login_app.go?TK=l1VjgK9SU2LnDkDAlcBt+3LqJC2MVMzaFmWt/ok6dNNtXIyffVtQTK40t7nBNcycSSgVOm6WjB12e/rmYlRDRA==&amp;JYH_XH=00000000000000096454&amp;_SIGN=fVrb9S2aoRdnJ+9khab+/A==",
             "msgCount": 0,
             "twh": "8002"
           }
@@ -2052,7 +2052,7 @@
       "parentId": 0,
       "path": "http://test1.yffsc.com/app/app_sh_rwxx_list.html?type=sh&amp;wherefrom=index",
       "perms": "yjztc",
-      "scXh": "0000000000000000002,0000000000000000003,0000000000000000008,0000000000000000006,0000000000000000004,0000000000000000007",
+      "scXh": "0000000000000000002,0000000000000000003,0000000000000000008,0000000000000000006,0000000000000000004,0000000000000000007,0000000000000000005",
       "status": "0",
       "visible": "0"
     },
@@ -2226,7 +2226,7 @@
       "msgCount": 0,
       "orderNum": 0,
       "parentId": 0,
-      "path": "http://81.68.188.10:9091/h5/index.html?isNew=1#/pages/cashierDesk/index?payType=2",
+      "path": "http://192.168.2.66:8089/addCustomerInfo",
       "perms": "123456",
       "scXh": "0000000000000000002",
       "status": "0",
